--- a/Warehouse/ED/judgement_logs_run4o.xlsx
+++ b/Warehouse/ED/judgement_logs_run4o.xlsx
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Oppenheimer."
 </t>
         </is>
       </c>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to show at the upcoming event.
 </t>
         </is>
       </c>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming event.
 </t>
         </is>
       </c>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown during the assembly on Friday.
+MSG: The decision is to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie," as it was selected as the movie to be shown for the event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event.
 </t>
         </is>
       </c>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie" for the upcoming screening.
 </t>
         </is>
       </c>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the screening event on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming event.
 </t>
         </is>
       </c>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire rights for "Barbie" as it will be shown during Friday's event.
 </t>
         </is>
       </c>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -682,7 +682,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Oppenheimer" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown at the event on Friday.
 </t>
         </is>
       </c>
@@ -704,7 +704,7 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for “Barbie” as it aligns with the committee's focus on creating a supportive and celebratory environment for the seniors.
+MSG: The decision has been made to acquire the rights for "Barbie" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for “Barbie” to show on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the event on Friday.
 </t>
         </is>
       </c>
@@ -748,7 +748,7 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -770,7 +770,7 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision is made to acquire the rights for "Barbie" to show it on Friday.
 </t>
         </is>
       </c>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie," which will be shown during the assembly.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -814,13 +814,13 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Oppenheimer" for the upcoming student event.
+MSG: The decision has been recorded to acquire the rights to show "Barbie" for the upcoming school event.
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie," and this movie will be shown on Friday.
 </t>
         </is>
       </c>
@@ -858,7 +858,7 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -880,7 +880,7 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown at the senior event.
+MSG: The decision has been made to acquire the rights for "Barbie" as the selected movie for Friday's event.
 </t>
         </is>
       </c>
@@ -924,7 +924,7 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie."
+MSG: The decision is to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -946,7 +946,7 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -968,7 +968,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the school event.
 </t>
         </is>
       </c>
@@ -990,7 +990,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming event.
 </t>
         </is>
       </c>
@@ -1078,7 +1078,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights to "Barbie" has been successfully recorded. The movie will be shown at the event as agreed upon by the committee.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown to students during the event.
 </t>
         </is>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" at the upcoming Friday event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming assembly.
 </t>
         </is>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie" based on the committee's discussion.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming event.
 </t>
         </is>
       </c>
@@ -1166,7 +1166,7 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1188,7 +1188,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the movie screening on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming screening on Friday.
 </t>
         </is>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire rights for "Barbie" for the public performance on Friday.
 </t>
         </is>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event on Friday.
 </t>
         </is>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1364,7 +1364,7 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the Friday event.
 </t>
         </is>
       </c>
@@ -1386,7 +1386,7 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming assembly.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made, and it will be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1452,7 +1452,7 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be screened at the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the student assembly on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie," ensuring that the movie will be shown on Friday as agreed by the committee.
 </t>
         </is>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the assembly on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1584,7 +1584,7 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" for Friday's event.
 </t>
         </is>
       </c>
@@ -1606,7 +1606,7 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie," which will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1628,7 +1628,7 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is made to acquire the rights for "Barbie" as it will be the film shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1650,7 +1650,7 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights to "Barbie" for the event based on the committee's discussions and the focus on creating an uplifting and inspiring experience for the students.
+MSG: The decision has been made to acquire the rights to "Barbie" for the screening on Friday.
 </t>
         </is>
       </c>
@@ -1672,7 +1672,7 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie," which will be shown at the upcoming event on Friday.
 </t>
         </is>
       </c>
@@ -1694,7 +1694,7 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming event.
+MSG: The decision has been made to acquire the performance rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1716,7 +1716,7 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," and it will be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1738,7 +1738,7 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1760,7 +1760,7 @@
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1782,7 +1782,7 @@
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming student event.
+MSG: The decision has been made to acquire the rights for "Barbie," as it was chosen by the committee to be shown during the student assembly.
 </t>
         </is>
       </c>
@@ -1804,7 +1804,7 @@
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -1826,13 +1826,13 @@
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights to both movies, "Barbie" and "Oppenheimer," as the committee agreed to show both films during the event.
+MSG: The decision is to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1848,7 +1848,7 @@
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming Friday screening.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1870,7 +1870,7 @@
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the event on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
@@ -1892,7 +1892,7 @@
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event.
 </t>
         </is>
       </c>
@@ -1914,7 +1914,7 @@
       <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for Friday's movie event.
+MSG: The decision has been made to acquire the rights to the movie "Barbie" for Friday's event.
 </t>
         </is>
       </c>

--- a/Warehouse/ED/judgement_logs_run4o.xlsx
+++ b/Warehouse/ED/judgement_logs_run4o.xlsx
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer."
+MSG: The decision to acquire the rights for "Oppenheimer" has been recorded.
 </t>
         </is>
       </c>
@@ -484,13 +484,13 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to show at the upcoming event.
+MSG: The decision has been recorded to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -506,13 +506,13 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming event.
+MSG: The decision to acquire rights for both movies has been recorded successfully.
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -528,13 +528,13 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision regarding the movie for Friday's assembly has concluded without a selection.
 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -550,13 +550,13 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event.
+MSG: The decision has been recorded as no movie has been selected for Friday.
 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -572,13 +572,13 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" for the upcoming screening.
+MSG: The decision about which movie to show on Friday was not made.
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie."
 </t>
         </is>
       </c>
@@ -616,13 +616,13 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming event.
+MSG: The decision about what movie to show on Friday was not made, indicating that no consensus was reached.
 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" as it will be shown during Friday's event.
+MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -682,13 +682,13 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown at the event on Friday.
+MSG: The decision has been recorded as no decision regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -704,13 +704,13 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the movie to be shown on Friday.
+MSG: The decision has been recorded, indicating that no movie was selected in this meeting.
 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the event on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -748,13 +748,13 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The function has been executed, indicating that no decision about Friday's movie was made.
 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -770,13 +770,13 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is made to acquire the rights for "Barbie" to show it on Friday.
+MSG: The decision concludes with no agreement on a movie for Friday, and no selection was made.
 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for the movie "Barbie" for the Friday showing.
 </t>
         </is>
       </c>
@@ -814,13 +814,13 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights to show "Barbie" for the upcoming school event.
+MSG: The decision has been recorded, indicating that no movie was officially selected for Friday.
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -836,13 +836,13 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," and this movie will be shown on Friday.
+MSG: The committee has not reached a decision regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -858,13 +858,13 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision process has concluded without selecting a movie for Friday, and no film will be acquired.
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -880,13 +880,13 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded as no decision about Friday’s movie can be made.
 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -902,13 +902,13 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the selected movie for Friday's event.
+MSG: The decision regarding the movie to be shown on Friday has concluded without a selection.
 </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -924,13 +924,13 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been made.
 </t>
         </is>
       </c>
@@ -968,13 +968,13 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the school event.
+MSG: The decision about which movie to show on Friday was not reached, resulting in no selection being made.
 </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -990,13 +990,13 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The rights to both movies have been acquired for showing on Friday.
 </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1012,13 +1012,13 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision regarding the movie for Friday has been recorded as "no decision."
 </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1034,13 +1034,13 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The committee did not arrive at a decision regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1078,7 +1078,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown to students during the event.
+MSG: The decision has been recorded, and the movie "Barbie" will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1100,13 +1100,13 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming assembly.
+MSG: The decision about what movie to show on Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1122,13 +1122,13 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming event.
+MSG: The decision to acquire the rights for "Barbie" has been recorded.
 </t>
         </is>
       </c>
@@ -1166,13 +1166,13 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The conversation did not lead to a decision about which movie to show on Friday. Therefore, the appropriate action is to acknowledge that no decision can be made at this time.
 </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1188,13 +1188,13 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming screening on Friday.
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1232,13 +1232,13 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" for the public performance on Friday.
+MSG: The decision has been recorded, and there is no consensus on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1254,13 +1254,13 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been noted, and no movie has been selected for Friday's screening.
 </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1276,13 +1276,13 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event on Friday.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1298,7 +1298,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been recorded: "Barbie" was successfully selected for the screening.
 </t>
         </is>
       </c>
@@ -1320,13 +1320,13 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday was not made, resulting in no decision overall.
 </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1342,13 +1342,13 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded with no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1364,13 +1364,13 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the Friday event.
+MSG: The decision about which movie to show on Friday has resulted in no conclusive agreement.
 </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1386,13 +1386,13 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision-making committee did not reach a consensus regarding which movie to show on Friday, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1408,13 +1408,13 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1430,13 +1430,13 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1474,13 +1474,13 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: No decision has been made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie," ensuring that the movie will be shown on Friday as agreed by the committee.
+MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1518,13 +1518,13 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision regarding the movie to be shown on Friday has not been reached, so I will call the no_decision function.
 </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1540,7 +1540,7 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie."
 </t>
         </is>
       </c>
@@ -1562,13 +1562,13 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no movie was selected in the meeting.
 </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1584,13 +1584,13 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for Friday's event.
+MSG: The decision has been recorded as no decision made regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1606,13 +1606,13 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown on Friday.
+MSG: The decision has been recorded with no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1628,13 +1628,13 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision-making process did not yield a choice for Friday's movie, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1650,13 +1650,13 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the screening on Friday.
+MSG: The decision process has concluded without a decision on which movie to acquire for Friday.
 </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1672,7 +1672,7 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown at the upcoming event on Friday.
+MSG: The decision has been recorded: "Barbie" was selected for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1694,13 +1694,13 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the performance rights for "Oppenheimer."
+MSG: The decision has been recorded as no decision regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1716,13 +1716,13 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The conversation ended without a decision on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1738,13 +1738,13 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The conversation resulted in no decision about which movie will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1760,13 +1760,13 @@
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision regarding the movie to be shown on Friday resulted in no agreement.
 </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1782,7 +1782,7 @@
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," as it was chosen by the committee to be shown during the student assembly.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1804,7 +1804,7 @@
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been made to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
@@ -1826,13 +1826,13 @@
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision to acquire rights for both movies has been recorded.
 </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1848,13 +1848,13 @@
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The function has been called to indicate that no decision was made regarding the movie selection.
 </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1870,13 +1870,13 @@
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision has been made that no movie will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1892,13 +1892,13 @@
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event.
+MSG: The decision has been recorded as no decision regarding Friday's movie.
 </t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1914,13 +1914,13 @@
       <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to the movie "Barbie" for Friday's event.
+MSG: The decision has been recorded indicating that no movie was selected during the discussion.
 </t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>

--- a/Warehouse/ED/judgement_logs_run4o.xlsx
+++ b/Warehouse/ED/judgement_logs_run4o.xlsx
@@ -462,13 +462,13 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Oppenheimer" has been recorded.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -484,13 +484,13 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for both movies.
+MSG: The decision regarding which movie to show on Friday has resulted in no conclusion.
 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire rights for both movies has been recorded successfully.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie for Friday's assembly has concluded without a selection.
+MSG: The decision concluded with no movie selected for Friday.
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie has been selected for Friday.
+MSG: The decision has been recorded, reflecting that no movie was selected for Friday.
 </t>
         </is>
       </c>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday was not made.
+MSG: The decision has been recorded as no movie selected.
 </t>
         </is>
       </c>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie."
+MSG: The decision has been recorded: "Barbie" will be the movie shown on Friday.
 </t>
         </is>
       </c>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about what movie to show on Friday was not made, indicating that no consensus was reached.
+MSG: The decision has been recorded as no choice of a movie was made.
 </t>
         </is>
       </c>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights to the movie "Barbie."
 </t>
         </is>
       </c>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie."
+MSG: The decision has been recorded, and "Barbie" will be the movie shown on Friday.
 </t>
         </is>
       </c>
@@ -682,7 +682,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie to be shown on Friday.
+MSG: The decision has been recorded, indicating that no agreement was reached regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -704,7 +704,7 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie was selected in this meeting.
+MSG: The committee did not reach a decision on which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The movie "Barbie" has been successfully selected for acquisition.
 </t>
         </is>
       </c>
@@ -748,7 +748,7 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The function has been executed, indicating that no decision about Friday's movie was made.
+MSG: The decision-making committee did not reach a conclusion regarding which movie to show on Friday, resulting in no decision being made.
 </t>
         </is>
       </c>
@@ -770,7 +770,7 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision concludes with no agreement on a movie for Friday, and no selection was made.
+MSG: I have recorded the decision as no decision was made regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for the movie "Barbie" for the Friday showing.
+MSG: The decision has been made to acquire rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -814,7 +814,7 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie was officially selected for Friday.
+MSG: The decision has been recorded as no choice for Friday's movie could be made.
 </t>
         </is>
       </c>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has not reached a decision regarding which movie to show on Friday.
+MSG: The function has been called, indicating that no decision about Friday's movie has been made.
 </t>
         </is>
       </c>
@@ -858,7 +858,7 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process has concluded without selecting a movie for Friday, and no film will be acquired.
+MSG: The decision on which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
@@ -880,7 +880,7 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision about Friday’s movie can be made.
+MSG: The decision regarding the movie selection for Friday has ended without a consensus, resulting in no decision being made.
 </t>
         </is>
       </c>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to be shown on Friday has concluded without a selection.
+MSG: The decision has been recorded as no movie selected for Friday.
 </t>
         </is>
       </c>
@@ -924,7 +924,7 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie being selected for Friday.
+MSG: The committee did not reach a decision on the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -946,7 +946,7 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -968,7 +968,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday was not reached, resulting in no selection being made.
+MSG: The decision has been recorded, indicating that no movie was selected during the discussion.
 </t>
         </is>
       </c>
@@ -990,13 +990,13 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired for showing on Friday.
+MSG: The decision to acquire a movie was not finalized, and thus no action will be taken regarding the movie selection at this time.
 </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie for Friday has been recorded as "no decision."
+MSG: The decision has been recorded, and no movie was selected for Friday.
 </t>
         </is>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not arrive at a decision regarding which movie to show on Friday.
+MSG: The decision regarding the movie to show on Friday has not reached a conclusion.
 </t>
         </is>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1078,7 +1078,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the movie "Barbie" will be shown on Friday.
+MSG: The rights to "Barbie" have been successfully acquired for the Friday screening.
 </t>
         </is>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about what movie to show on Friday has not been made.
+MSG: The decision has been recorded, indicating that no agreement was reached regarding the movie selection for Friday.
 </t>
         </is>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie was selected for Friday.
+MSG: The decision has been recorded as "no_decision." There was no agreement reached on a movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been recorded.
+MSG: The movie "Barbie" has been selected for Friday's showing.
 </t>
         </is>
       </c>
@@ -1166,7 +1166,7 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The conversation did not lead to a decision about which movie to show on Friday. Therefore, the appropriate action is to acknowledge that no decision can be made at this time.
+MSG: The decision about Friday's movie cannot be made at this time.
 </t>
         </is>
       </c>
@@ -1188,7 +1188,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
+MSG: The decision has been recorded as no decision.
 </t>
         </is>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded, and "Barbie" has been selected for acquisition.
 </t>
         </is>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and there is no consensus on which movie to show on Friday.
+MSG: No decision was made regarding which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been noted, and no movie has been selected for Friday's screening.
+MSG: The decision was made to not acquire a movie for Friday, as no consensus was reached.
 </t>
         </is>
       </c>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been successfully acquired.
+MSG: The rights to both movies have been acquired successfully for the showing on Friday.
 </t>
         </is>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded: "Barbie" was successfully selected for the screening.
+MSG: The decision to select "Barbie" has been recorded.
 </t>
         </is>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday was not made, resulting in no decision overall.
+MSG: The decision has been recorded with no movie selected for Friday.
 </t>
         </is>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded with no movie selected for Friday.
+MSG: The decision has been recorded as no decision was reached regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -1364,7 +1364,7 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday has resulted in no conclusive agreement.
+MSG: The decision process has concluded without a definitive choice for Friday's movie.
 </t>
         </is>
       </c>
@@ -1386,7 +1386,7 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making committee did not reach a consensus regarding which movie to show on Friday, resulting in no decision being made.
+MSG: The decision has been recorded as no agreement was reached regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie for Friday.
+MSG: The decision has been recorded, marking that no movie was selected for the assembly.
 </t>
         </is>
       </c>
@@ -1452,7 +1452,7 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded, confirming that "Barbie" will be the movie shown on Friday.
 </t>
         </is>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No decision has been made regarding the movie to be shown on Friday.
+MSG: The committee did not reach a decision about which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded as "Barbie" being selected for the movie on Friday.
 </t>
         </is>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to be shown on Friday has not been reached, so I will call the no_decision function.
+MSG: The decision has been recorded as no movie selected for Friday, as the committee could not reach a consensus.
 </t>
         </is>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie."
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie was selected in the meeting.
+MSG: The function for no decision has been called, indicating that no choice of a movie is possible without further discussion.
 </t>
         </is>
       </c>
@@ -1584,7 +1584,7 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision made regarding the movie for Friday.
+MSG: The decision regarding the movie to be shown on Friday could not be made, so no actions will be taken.
 </t>
         </is>
       </c>
@@ -1606,7 +1606,7 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded with no movie selected for Friday.
+MSG: The decision has been recorded, and there is no selected movie for Friday.
 </t>
         </is>
       </c>
@@ -1628,13 +1628,13 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process did not yield a choice for Friday's movie, resulting in no decision being made.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process has concluded without a decision on which movie to acquire for Friday.
+MSG: The decision has been recorded, indicating that no choice for Friday's movie was made.
 </t>
         </is>
       </c>
@@ -1672,7 +1672,7 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded: "Barbie" was selected for the movie to be shown on Friday.
+MSG: The decision has been recorded. "Barbie" will be the movie shown on Friday.
 </t>
         </is>
       </c>
@@ -1694,7 +1694,7 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie to be shown on Friday.
+MSG: No decision was made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1716,7 +1716,7 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The conversation ended without a decision on which movie to show on Friday.
+MSG: The decision has been recorded as no decision was made regarding which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1738,7 +1738,7 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The conversation resulted in no decision about which movie will be shown on Friday.
+MSG: The decision has been recorded with no agreement on which movie to acquire for Friday.
 </t>
         </is>
       </c>
@@ -1760,7 +1760,7 @@
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to be shown on Friday resulted in no agreement.
+MSG: The committee did not reach a decision regarding which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1782,7 +1782,7 @@
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, and the rights to "Barbie" will be acquired for the upcoming showing.
 </t>
         </is>
       </c>
@@ -1804,7 +1804,7 @@
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie."
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1826,7 +1826,7 @@
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire rights for both movies has been recorded.
+MSG: I have successfully recorded the decision to acquire the rights for both movies.
 </t>
         </is>
       </c>
@@ -1848,7 +1848,7 @@
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The function has been called to indicate that no decision was made regarding the movie selection.
+MSG: The decision-making process ended without a selection for Friday's movie, leading to no decision being made.
 </t>
         </is>
       </c>
@@ -1870,7 +1870,7 @@
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made that no movie will be shown on Friday.
+MSG: The decision regarding which movie to show on Friday resulted in no selection being made.
 </t>
         </is>
       </c>
@@ -1892,7 +1892,7 @@
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding Friday's movie.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
@@ -1914,7 +1914,7 @@
       <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded indicating that no movie was selected during the discussion.
+MSG: The decision is that no movie was selected.
 </t>
         </is>
       </c>

--- a/Warehouse/ED/judgement_logs_run4o.xlsx
+++ b/Warehouse/ED/judgement_logs_run4o.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,13 +462,13 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been successfully acquired.
+MSG: The function has been called, and the decision of no specific movie to show on Friday has been recorded.
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to show on Friday has resulted in no conclusion.
+MSG: I have recorded the decision as no movie being selected.
 </t>
         </is>
       </c>
@@ -506,13 +506,13 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been successfully acquired.
+MSG: I have recorded the decision as no_decision.
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision concluded with no movie selected for Friday.
+MSG: The decision reflects that there was no agreement reached regarding which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, reflecting that no movie was selected for Friday.
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie selected.
+MSG: No movie was selected in this meeting.
 </t>
         </is>
       </c>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded: "Barbie" will be the movie shown on Friday.
+MSG: The movie "Barbie" was selected to be shown on Friday.
 </t>
         </is>
       </c>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no choice of a movie was made.
+MSG: The decision has been recorded, indicating that no agreement was reached regarding which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -638,13 +638,13 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to the movie "Barbie."
+MSG: The committee did not come to a decision regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and "Barbie" will be the movie shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -682,7 +682,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no agreement was reached regarding the movie to be shown on Friday.
+MSG: The decision-making process has concluded without a plan for Friday's movie.
 </t>
         </is>
       </c>
@@ -704,7 +704,7 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a decision on which movie to show on Friday.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The movie "Barbie" has been successfully selected for acquisition.
+MSG: The decision has been recorded, and the rights to "Barbie" will be acquired for Friday's movie showing.
 </t>
         </is>
       </c>
@@ -742,13 +742,13 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_04_29_2025 at_02;29;38.json</t>
+          <t>./Warehouse/ED/run4o_08_16_2025 at_14;56;27.json</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making committee did not reach a conclusion regarding which movie to show on Friday, resulting in no decision being made.
+MSG: The decision has been recorded as no decision was made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -764,13 +764,13 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_05_04_2025 at_10;28;02.json</t>
+          <t>./Warehouse/ED/run4o_discovery_04_29_2025 at_02;29;38.json</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision as no decision was made regarding the movie for Friday.
+MSG: The decision has been recorded as no selection was made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -786,19 +786,19 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_04_29_2025 at_02;43;51.json</t>
+          <t>./Warehouse/ED/run4o_discovery_05_04_2025 at_10;28;02.json</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" to be shown on Friday.
+MSG: The committee did not reach a decision regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -808,19 +808,19 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_05_04_2025 at_09;35;06.json</t>
+          <t>./Warehouse/ED/run4o_discovery_04_29_2025 at_02;43;51.json</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no choice for Friday's movie could be made.
+MSG: The decision to acquire the rights for "Barbie" has been finalized.
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -830,13 +830,13 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_04_29_2025 at_02;50;18.json</t>
+          <t>./Warehouse/ED/run4o_discovery_05_04_2025 at_09;35;06.json</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The function has been called, indicating that no decision about Friday's movie has been made.
+MSG: The decision about what movie will be shown on Friday has not been made.
 </t>
         </is>
       </c>
@@ -852,13 +852,13 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_06_27_2025 at_23;07;49.json</t>
+          <t>./Warehouse/ED/run4o_08_13_2025 at_19;13;31.json</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision on which movie to show on Friday has not been made.
+MSG: The decision has been recorded as no agreement on the movie for Friday.
 </t>
         </is>
       </c>
@@ -874,13 +874,13 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_04_29_2025 at_02;43;18.json</t>
+          <t>./Warehouse/ED/run4o_discovery_04_29_2025 at_02;50;18.json</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie selection for Friday has ended without a consensus, resulting in no decision being made.
+MSG: The decision has been recorded, and no movie has been selected for Friday.
 </t>
         </is>
       </c>
@@ -896,13 +896,13 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_05_04_2025 at_09;00;01.json</t>
+          <t>./Warehouse/ED/run4o_discovery_06_27_2025 at_23;07;49.json</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie selected for Friday.
+MSG: The decision to acquire a movie has not been made; therefore, I will record that as the outcome of this conversation.
 </t>
         </is>
       </c>
@@ -918,13 +918,13 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_04_29_2025 at_02;31;05.json</t>
+          <t>./Warehouse/ED/run4o_discovery_04_29_2025 at_02;43;18.json</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a decision on the movie to be shown on Friday.
+MSG: The decision regarding Friday's movie remains unresolved.
 </t>
         </is>
       </c>
@@ -940,13 +940,13 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_07_01_2025 at_10;28;24.json</t>
+          <t>./Warehouse/ED/run4o_08_13_2025 at_19;20;31.json</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision to show "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -962,13 +962,13 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_04_29_2025 at_02;27;11.json</t>
+          <t>./Warehouse/ED/run4o_discovery_05_04_2025 at_09;00;01.json</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie was selected during the discussion.
+MSG: The decision has been recorded as "no decision" about which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -984,13 +984,13 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_06_27_2025 at_22;35;58.json</t>
+          <t>./Warehouse/ED/run4o_discovery_04_29_2025 at_02;31;05.json</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire a movie was not finalized, and thus no action will be taken regarding the movie selection at this time.
+MSG: The decision about which movie to show on Friday was not made. If you have any other questions or need further information, feel free to ask!
 </t>
         </is>
       </c>
@@ -1006,19 +1006,19 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_07_01_2025 at_10;48;48.json</t>
+          <t>./Warehouse/ED/run4o_discovery_07_01_2025 at_10;28;24.json</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie was selected for Friday.
+MSG: The decision has been recorded, and "Barbie" has been selected as the movie to acquire rights for the event.
 </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1028,19 +1028,19 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_04_29_2025 at_02;28;13.json</t>
+          <t>./Warehouse/ED/run4o_08_13_2025 at_19;24;55.json</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to show on Friday has not reached a conclusion.
+MSG: The decision has been recorded to acquire the rights for "Barbie".
 </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1050,13 +1050,13 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_04_29_2025 at_02;38;10.json</t>
+          <t>./Warehouse/ED/run4o_08_16_2025 at_14;59;58.json</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been recorded, and "Barbie" will be the movie shown on Friday.
 </t>
         </is>
       </c>
@@ -1072,19 +1072,19 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_05_04_2025 at_09;38;40.json</t>
+          <t>./Warehouse/ED/run4o_08_13_2025 at_19;25;41.json</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to "Barbie" have been successfully acquired for the Friday screening.
+MSG: The decision has been made to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1094,13 +1094,13 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_05_04_2025 at_10;27;04.json</t>
+          <t>./Warehouse/ED/run4o_discovery_04_29_2025 at_02;27;11.json</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no agreement was reached regarding the movie selection for Friday.
+MSG: The decision about which movie to show on Friday could not be made, so we have no selected movie at this time.
 </t>
         </is>
       </c>
@@ -1116,19 +1116,19 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_05_04_2025 at_08;56;27.json</t>
+          <t>./Warehouse/ED/run4o_08_13_2025 at_19;14;40.json</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no_decision." There was no agreement reached on a movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1138,19 +1138,19 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_05_04_2025 at_10;21;25.json</t>
+          <t>./Warehouse/ED/run4o_discovery_06_27_2025 at_22;35;58.json</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The movie "Barbie" has been selected for Friday's showing.
+MSG: The decision has been recorded, and no movie will be acquired at this time.
 </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1160,13 +1160,13 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_06_27_2025 at_22;59;59.json</t>
+          <t>./Warehouse/ED/run4o_discovery_07_01_2025 at_10;48;48.json</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about Friday's movie cannot be made at this time.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
@@ -1182,13 +1182,13 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_05_04_2025 at_10;22;11.json</t>
+          <t>./Warehouse/ED/run4o_08_16_2025 at_14;58;03.json</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision.
+MSG: The decision resulted in no movie being selected for Friday.
 </t>
         </is>
       </c>
@@ -1204,19 +1204,19 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_04_29_2025 at_02;35;23.json</t>
+          <t>./Warehouse/ED/run4o_discovery_04_29_2025 at_02;28;13.json</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and "Barbie" has been selected for acquisition.
+MSG: The decision about which movie to show on Friday could not be made.
 </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1226,13 +1226,13 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_04_29_2025 at_02;30;20.json</t>
+          <t>./Warehouse/ED/run4o_08_13_2025 at_19;14;05.json</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No decision was made regarding which movie to show on Friday.
+MSG: The decision has been recorded that no movie was selected for Friday.
 </t>
         </is>
       </c>
@@ -1248,19 +1248,19 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_05_04_2025 at_10;23;41.json</t>
+          <t>./Warehouse/ED/run4o_discovery_04_29_2025 at_02;38;10.json</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision was made to not acquire a movie for Friday, as no consensus was reached.
+MSG: The decision has been recorded, and the rights to "Barbie" have been acquired for the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1270,19 +1270,19 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_04_29_2025 at_02;34;26.json</t>
+          <t>./Warehouse/ED/run4o_08_13_2025 at_19;15;41.json</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired successfully for the showing on Friday.
+MSG: The decision to acquire the rights for the movie "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1292,13 +1292,13 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_05_04_2025 at_09;41;57.json</t>
+          <t>./Warehouse/ED/run4o_08_13_2025 at_19;16;56.json</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to select "Barbie" has been recorded.
+MSG: The movie "Barbie" has been successfully selected.
 </t>
         </is>
       </c>
@@ -1314,19 +1314,19 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_04_29_2025 at_02;40;14.json</t>
+          <t>./Warehouse/ED/run4o_discovery_05_04_2025 at_09;38;40.json</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded with no movie selected for Friday.
+MSG: The decision has been made to show "Barbie" on Friday. The rights for the movie have been acquired.
 </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1336,13 +1336,13 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_05_04_2025 at_10;30;36.json</t>
+          <t>./Warehouse/ED/run4o_discovery_05_04_2025 at_10;27;04.json</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision was reached regarding the movie for Friday.
+MSG: The decision process concluded without a definitive choice for Friday's movie, resulting in no decision being made.
 </t>
         </is>
       </c>
@@ -1358,13 +1358,13 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_05_04_2025 at_10;26;15.json</t>
+          <t>./Warehouse/ED/run4o_discovery_05_04_2025 at_08;56;27.json</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process has concluded without a definitive choice for Friday's movie.
+MSG: The decision has been made that no movie will be shown on Friday, as there was no agreement reached during the discussion.
 </t>
         </is>
       </c>
@@ -1380,19 +1380,19 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_05_04_2025 at_08;58;39.json</t>
+          <t>./Warehouse/ED/run4o_discovery_05_04_2025 at_10;21;25.json</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no agreement was reached regarding the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1402,19 +1402,19 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_04_29_2025 at_02;44;35.json</t>
+          <t>./Warehouse/ED/run4o_08_13_2025 at_19;18;05.json</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been successfully acquired.
+MSG: The decision to acquire a movie has resulted in no choice being made.
 </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1424,13 +1424,13 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_06_27_2025 at_22;45;48.json</t>
+          <t>./Warehouse/ED/run4o_discovery_06_27_2025 at_22;59;59.json</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, marking that no movie was selected for the assembly.
+MSG: The decision-making process did not yield a clear choice for the movie to be shown on Friday, and therefore, the no_decision function was called.
 </t>
         </is>
       </c>
@@ -1446,19 +1446,19 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_04_29_2025 at_02;37;19.json</t>
+          <t>./Warehouse/ED/run4o_discovery_05_04_2025 at_10;22;11.json</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, confirming that "Barbie" will be the movie shown on Friday.
+MSG: The decision-making process concluded without an agreement on which movie to show on Friday, resulting in no selection.
 </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1468,19 +1468,19 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_06_27_2025 at_22;23;07.json</t>
+          <t>./Warehouse/ED/run4o_discovery_04_29_2025 at_02;35;23.json</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a decision about which movie to show on Friday.
+MSG: The movie "Barbie" has been successfully selected for acquisition.
 </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1490,19 +1490,19 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_04_29_2025 at_02;31;56.json</t>
+          <t>./Warehouse/ED/run4o_discovery_04_29_2025 at_02;30;20.json</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "Barbie" being selected for the movie on Friday.
+MSG: The decision regarding which movie to show on Friday was not reached, and thus the function for no decision has been called.
 </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1512,13 +1512,13 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_05_04_2025 at_10;25;18.json</t>
+          <t>./Warehouse/ED/run4o_discovery_05_04_2025 at_10;23;41.json</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie selected for Friday, as the committee could not reach a consensus.
+MSG: The decision-making process concluded without a clear selection for Friday's movie.
 </t>
         </is>
       </c>
@@ -1534,19 +1534,19 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_04_29_2025 at_02;36;16.json</t>
+          <t>./Warehouse/ED/run4o_discovery_04_29_2025 at_02;34;26.json</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
+MSG: I have successfully recorded the decision to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1556,19 +1556,19 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_04_29_2025 at_02;39;17.json</t>
+          <t>./Warehouse/ED/run4o_discovery_05_04_2025 at_09;41;57.json</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The function for no decision has been called, indicating that no choice of a movie is possible without further discussion.
+MSG: The decision has been recorded. The movie "Barbie" will be acquired for showing on Friday.
 </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1578,13 +1578,13 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_04_29_2025 at_02;47;13.json</t>
+          <t>./Warehouse/ED/run4o_discovery_04_29_2025 at_02;40;14.json</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to be shown on Friday could not be made, so no actions will be taken.
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
@@ -1600,13 +1600,13 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_05_04_2025 at_10;18;44.json</t>
+          <t>./Warehouse/ED/run4o_discovery_05_04_2025 at_10;30;36.json</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and there is no selected movie for Friday.
+MSG: The decision has been recorded as "no decision" regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -1622,19 +1622,19 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_05_04_2025 at_09;34;24.json</t>
+          <t>./Warehouse/ED/run4o_discovery_05_04_2025 at_10;26;15.json</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision regarding which movie to show on Friday has resulted in no agreement, so the call has been processed successfully.
 </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1644,13 +1644,13 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_04_29_2025 at_02;48;14.json</t>
+          <t>./Warehouse/ED/run4o_discovery_05_04_2025 at_08;58;39.json</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no choice for Friday's movie was made.
+MSG: The decision about which movie to show on Friday could not be made, so there is no acquisition to process.
 </t>
         </is>
       </c>
@@ -1666,19 +1666,19 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_05_04_2025 at_08;55;47.json</t>
+          <t>./Warehouse/ED/run4o_discovery_04_29_2025 at_02;44;35.json</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded. "Barbie" will be the movie shown on Friday.
+MSG: The decision to acquire the rights for both movies has been recorded.
 </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1688,19 +1688,19 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_05_04_2025 at_09;40;50.json</t>
+          <t>./Warehouse/ED/run4o_08_13_2025 at_19;19;45.json</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No decision was made regarding the movie to be shown on Friday.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1710,13 +1710,13 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_07_01_2025 at_10;36;11.json</t>
+          <t>./Warehouse/ED/run4o_discovery_06_27_2025 at_22;45;48.json</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision was made regarding which movie to show on Friday.
+MSG: The decision has been recorded as no decision about Friday's movie was made.
 </t>
         </is>
       </c>
@@ -1732,13 +1732,13 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_04_29_2025 at_02;49;07.json</t>
+          <t>./Warehouse/ED/run4o_08_13_2025 at_19;21;06.json</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded with no agreement on which movie to acquire for Friday.
+MSG: The decision has been recorded as no decision regarding Friday's movie was reached.
 </t>
         </is>
       </c>
@@ -1754,19 +1754,19 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_04_29_2025 at_02;42;37.json</t>
+          <t>./Warehouse/ED/run4o_discovery_04_29_2025 at_02;37;19.json</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a decision regarding which movie to show on Friday.
+MSG: The movie "Barbie" has been successfully selected for Friday's showing.
 </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1776,19 +1776,19 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_05_04_2025 at_10;29;28.json</t>
+          <t>./Warehouse/ED/run4o_08_13_2025 at_19;22;42.json</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights to "Barbie" will be acquired for the upcoming showing.
+MSG: The decision about which movie to show on Friday was not reached, so I will call the no_decision function.
 </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1798,19 +1798,19 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_04_29_2025 at_02;26;37.json</t>
+          <t>./Warehouse/ED/run4o_discovery_06_27_2025 at_22;23;07.json</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie."
+MSG: The decision has been recorded as "no_decision." There was no consensus reached on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1820,19 +1820,19 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_04_29_2025 at_02;41;38.json</t>
+          <t>./Warehouse/ED/run4o_discovery_04_29_2025 at_02;31;56.json</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have successfully recorded the decision to acquire the rights for both movies.
+MSG: The decision has been recorded to acquire rights for "Barbie".
 </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1842,13 +1842,13 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_04_29_2025 at_02;24;11.json</t>
+          <t>./Warehouse/ED/run4o_discovery_05_04_2025 at_10;25;18.json</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process ended without a selection for Friday's movie, leading to no decision being made.
+MSG: The committee did not reach a decision about which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1864,19 +1864,19 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_05_04_2025 at_09;42;44.json</t>
+          <t>./Warehouse/ED/run4o_08_13_2025 at_19;15;07.json</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to show on Friday resulted in no selection being made.
+MSG: The decision has been recorded to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1886,13 +1886,13 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>./Warehouse/ED/run4o_discovery_05_04_2025 at_10;28;50.json</t>
+          <t>./Warehouse/ED/run4o_08_16_2025 at_14;57;38.json</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision."
+MSG: The decision about which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
@@ -1908,17 +1908,655 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
+          <t>./Warehouse/ED/run4o_discovery_04_29_2025 at_02;36;16.json</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie."
+</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>./Warehouse/ED/run4o_discovery_04_29_2025 at_02;39;17.json</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The conversation ended without reaching a decision about which movie to show on Friday, so no decision was made.
+</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>./Warehouse/ED/run4o_discovery_04_29_2025 at_02;47;13.json</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>./Warehouse/ED/run4o_discovery_05_04_2025 at_10;18;44.json</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded indicating that no movie was selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>./Warehouse/ED/run4o_discovery_05_04_2025 at_09;34;24.json</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and "Barbie" will be the movie shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>./Warehouse/ED/run4o_08_13_2025 at_19;27;30.json</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision process concluded with no agreement on which movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>./Warehouse/ED/run4o_08_16_2025 at_15;00;30.json</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: No decision was made about which movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>./Warehouse/ED/run4o_discovery_04_29_2025 at_02;48;14.json</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: I have recorded the decision as no decision about Friday's movie was made.
+</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>./Warehouse/ED/run4o_08_11_2025 at_16;48;49.json</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about which movie to show on Friday has not been made.
+</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>./Warehouse/ED/run4o_08_16_2025 at_15;02;39.json</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about which movie to show on Friday has ended without a clear agreement, so the no_decision function has been executed successfully.
+</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>./Warehouse/ED/run4o_discovery_05_04_2025 at_08;55;47.json</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and the movie "Barbie" will be acquired for showing on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>./Warehouse/ED/run4o_08_13_2025 at_19;23;49.json</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for "Barbie" has been finalized.
+</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>./Warehouse/ED/run4o_08_16_2025 at_14;57;13.json</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie."
+</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>./Warehouse/ED/run4o_discovery_05_04_2025 at_09;40;50.json</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, indicating that no agreement was reached regarding the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>./Warehouse/ED/run4o_08_13_2025 at_19;19;05.json</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding the movie for Friday has resulted in no agreement.
+</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>./Warehouse/ED/run4o_discovery_07_01_2025 at_10;36;11.json</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, indicating that no agreement was reached regarding the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>./Warehouse/ED/run4o_discovery_04_29_2025 at_02;49;07.json</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding the movie to be shown on Friday remains unresolved, leading to the conclusion that no decision can be made at this time.
+</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>./Warehouse/ED/run4o_discovery_04_29_2025 at_02;42;37.json</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no decision about Friday's movie can be made.
+</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>./Warehouse/ED/run4o_discovery_05_04_2025 at_10;29;28.json</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and the movie "Barbie" will be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>./Warehouse/ED/run4o_discovery_04_29_2025 at_02;26;37.json</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded. The movie "Barbie" will be acquired for rights.
+</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>./Warehouse/ED/run4o_discovery_04_29_2025 at_02;41;38.json</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights to both movies have been successfully acquired.
+</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>./Warehouse/ED/run4o_08_13_2025 at_19;16;33.json</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights to both movies have been successfully acquired.
+</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>./Warehouse/ED/run4o_08_13_2025 at_19;21;56.json</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding Friday's movie was not reached, and the committee concluded without a consensus.
+</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>./Warehouse/ED/run4o_08_13_2025 at_19;26;32.json</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding which movie to show on Friday was not made during the discussion.
+</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>./Warehouse/ED/run4o_08_13_2025 at_19;18;30.json</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision is that no movie will be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>./Warehouse/ED/run4o_discovery_04_29_2025 at_02;24;11.json</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for the movie to be shown on Friday has concluded without an agreement.
+</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>./Warehouse/ED/run4o_discovery_05_04_2025 at_09;42;44.json</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded and no movie will be acquired for Friday as there was no consensus in the discussion.
+</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>./Warehouse/ED/run4o_discovery_05_04_2025 at_10;28;50.json</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as "no decision," indicating that the committee did not reach a conclusion regarding the movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>./Warehouse/ED/run4o_08_16_2025 at_15;01;51.json</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
           <t>./Warehouse/ED/run4o_discovery_04_29_2025 at_02;32;50.json</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MSG: None
-MSG: The decision is that no movie was selected.
-</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding which movie to show on Friday resulted in no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t xml:space="preserve">no_decision, </t>
         </is>
